--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,34 @@
   </si>
   <si>
     <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴紫东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,9 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -643,6 +673,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20170511</v>
+      </c>
+      <c r="C5">
+        <f>3+35+100+4+51+5</f>
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,6 +760,20 @@
         <v>72.3</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20170511</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,10 +783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -791,6 +853,77 @@
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20170511</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1">
+        <f>100/3+51/2</f>
+        <v>58.833333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20170511</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20170511</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1">
+        <f>100/3+51/2+4</f>
+        <v>62.833333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20170511</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1">
+        <f>100/3</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,10 +933,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -927,6 +1060,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20170511</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>20170511</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>20170511</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,7 +1108,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1020,9 +1189,33 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>20170511</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>20170511</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
@@ -1346,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1416,6 +1609,28 @@
       </c>
       <c r="C5">
         <v>20170510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>20170511</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>20170511</v>
       </c>
     </row>
   </sheetData>

--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其它项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +224,42 @@
   </si>
   <si>
     <t>伙食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴紫东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、吴紫东、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两把螺丝刀10+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -603,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -618,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -632,10 +664,10 @@
         <v>120</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -650,10 +682,10 @@
         <v>103.1</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -685,10 +717,31 @@
         <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20170512</v>
+      </c>
+      <c r="C6">
+        <f>5+9.6+13+15+19+9.7+6.6+33.5+2+10+42</f>
+        <v>165.39999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -740,7 +793,7 @@
         <v>20170508</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
         <v>120</v>
@@ -754,7 +807,7 @@
         <v>20170509</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>72.3</v>
@@ -768,10 +821,24 @@
         <v>20170511</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4">
         <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20170512</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>165.4</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -827,7 +894,7 @@
         <v>20170508</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -844,7 +911,7 @@
         <v>20170508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -861,10 +928,10 @@
         <v>20170511</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="1">
         <f>100/3+51/2</f>
@@ -879,10 +946,10 @@
         <v>20170511</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -896,10 +963,10 @@
         <v>20170511</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1">
         <f>100/3+51/2+4</f>
@@ -914,14 +981,48 @@
         <v>20170511</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
         <f>100/3</f>
         <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20170512</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20170512</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -933,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1169,7 @@
         <v>20170511</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1094,6 +1195,39 @@
       </c>
       <c r="D10" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>20170512</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>20170512</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>20170512</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1242,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1118,33 +1252,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>20170509</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1155,10 +1289,10 @@
         <v>20170509</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1169,10 +1303,10 @@
         <v>20170510</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1183,10 +1317,10 @@
         <v>20170510</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1197,10 +1331,10 @@
         <v>20170511</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,15 +1345,39 @@
         <v>20170511</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>20170512</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>20170512</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="6"/>
@@ -1539,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1552,38 +1710,38 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>20170509</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>20170509</v>
@@ -1591,21 +1749,21 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>20170510</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>20170510</v>
@@ -1613,23 +1771,45 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>20170511</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
+        <v>20170511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>20170512</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
         <v>20170511</v>
       </c>
     </row>

--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,22 @@
   </si>
   <si>
     <t>吴紫东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机配件总计28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、吴紫东、郑景祥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -744,6 +760,43 @@
         <v>55</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20170513</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20170514</v>
+      </c>
+      <c r="C8">
+        <v>57.41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -753,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -839,6 +892,34 @@
       </c>
       <c r="D5" s="1">
         <v>165.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20170513</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20170514</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1">
+        <v>57.41</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1230,6 +1311,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>20170513</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1242,7 +1334,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1380,18 +1472,60 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="6"/>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>20170513</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>20170513</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>20170514</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>20170514</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
@@ -1697,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1810,6 +1944,50 @@
         <v>30</v>
       </c>
       <c r="C9">
+        <v>20170511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>20170513</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>20170511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>20170514</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
         <v>20170511</v>
       </c>
     </row>

--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -13,11 +13,11 @@
     <sheet name="公共消费权重表" sheetId="3" r:id="rId4"/>
     <sheet name="莆田维养项目部签到表" sheetId="6" r:id="rId5"/>
     <sheet name="莆田绶溪公园施工监控项目签到表" sheetId="7" r:id="rId6"/>
-    <sheet name="统计表" sheetId="4" r:id="rId7"/>
+    <sheet name="特殊消费" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公共消费权重表!$A$1:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="180">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,474 @@
   </si>
   <si>
     <t>林迪南、吴紫东、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、吴紫东、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴紫东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、吴紫东、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴紫东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部所里报销垫支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部预报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强、王燊、林兆信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强、王燊、林兆信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王燊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林兆信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林兆信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4床席子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2把钥匙扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、王曦强、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王曦强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄学漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3床被子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、王兆林、黄学漾、江祖卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王兆林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄学漾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江祖卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,11 +1103,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -797,6 +1263,408 @@
         <v>61</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20170515</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20170516</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20170517</v>
+      </c>
+      <c r="C11">
+        <f>7+40+4+91.7</f>
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20170518</v>
+      </c>
+      <c r="C12">
+        <f>26.5+28+24+24.7+15+3.5+317.37</f>
+        <v>439.07</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20170519</v>
+      </c>
+      <c r="C13">
+        <f>15+16+6+15+29+5+2.5</f>
+        <v>88.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20170520</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20170521</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>20170522</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20170523</v>
+      </c>
+      <c r="C17">
+        <f>24+53.86</f>
+        <v>77.86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20170524</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20170525</v>
+      </c>
+      <c r="C19">
+        <f>17.7+18+14.8+31+3.82+119</f>
+        <v>204.32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20170526</v>
+      </c>
+      <c r="C20">
+        <f>92+28</f>
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20170527</v>
+      </c>
+      <c r="C21">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20170528</v>
+      </c>
+      <c r="C22">
+        <f>32+22+40</f>
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20170529</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>20170530</v>
+      </c>
+      <c r="C24">
+        <f>16+50</f>
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>20170531</v>
+      </c>
+      <c r="C25">
+        <f>18+10.9+4+32+10+58.7</f>
+        <v>133.60000000000002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>20170601</v>
+      </c>
+      <c r="C26">
+        <f>5.5+17.5+19+15.4+15</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>20170602</v>
+      </c>
+      <c r="C27">
+        <f>70+(509.62-3*140)</f>
+        <v>159.62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>20170603</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>20170604</v>
+      </c>
+      <c r="C29">
+        <f>78+78.4+36</f>
+        <v>192.4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>20170605</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>20170606</v>
+      </c>
+      <c r="C31">
+        <f>14+9.5+48+99</f>
+        <v>170.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>20170607</v>
+      </c>
+      <c r="C32">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f>SUM(C2:C32)</f>
+        <v>2709.8799999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -806,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -839,7 +1707,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -853,7 +1721,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -867,7 +1735,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -881,7 +1749,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -895,7 +1763,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -909,7 +1777,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -920,6 +1788,283 @@
       </c>
       <c r="D7" s="1">
         <v>57.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20170517</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <f>7+40+4+91.7</f>
+        <v>142.69999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20170518</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <f>26.5+28+24+24.7+15+3.5+317.37</f>
+        <v>439.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20170519</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20170520</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20170521</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20170522</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20170523</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>24+53.86</f>
+        <v>77.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>20170524</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>20170525</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <f>17.7+18+14.8+31+3.82+119</f>
+        <v>204.32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>20170526</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <f>92+28</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>20170527</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <f>30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>20170528</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <f>32+22+40</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>20170529</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20170530</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>16+50</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>20170531</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>18+10.9+4+32+10+58.7</f>
+        <v>133.60000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20170601</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f>5.5+17.5+19+15.4+15</f>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>20170602</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24">
+        <f>70+(509.62-3*140)</f>
+        <v>159.62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>20170603</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>20170604</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <f>78+78.4+36</f>
+        <v>192.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>20170605</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>20170606</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28">
+        <f>14+9.5+48+99</f>
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>20170607</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29">
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F20" sqref="F20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1106,6 +2251,222 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20170517</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20170517</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20170517</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20170517</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20170523</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20170523</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>20170524</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>20170527</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>20170530</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>20170530</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>20170606</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="F20"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>20170606</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>20170606</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>20170606</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="1">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E64" sqref="E64:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1129,6 +2490,7 @@
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" customWidth="1"/>
     <col min="9" max="9" width="34.1640625" customWidth="1"/>
   </cols>
@@ -1321,6 +2683,569 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>20170515</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>20170515</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>20170515</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>20170516</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>20170516</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>20170516</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>20170517</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20170517</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>20170517</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>20170517</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>20170518</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>20170518</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>20170518</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>20170518</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>20170519</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>20170519</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>20170519</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>20170520</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>20170520</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>20170522</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>20170523</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>20170523</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37">
+        <v>20170523</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38" s="3">
+        <v>20170525</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39" s="3">
+        <v>20170525</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40" s="3">
+        <v>20170525</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>20170525</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>20170525</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>20170526</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
+        <v>20170526</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>20170526</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
+        <v>20170526</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
+        <v>20170526</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="3">
+        <v>20170528</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
+        <v>20170529</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
+        <v>20170530</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="3">
+        <v>20170531</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="3">
+        <v>20170531</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
+        <v>20170601</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="3">
+        <v>20170601</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="3">
+        <v>20170601</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="3">
+        <v>20170602</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="3">
+        <v>20170602</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <v>20170602</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <v>20170603</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>20170603</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="3">
+        <v>20170604</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>20170604</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>20170605</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E64"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E65"/>
+      <c r="H65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1527,300 +3452,1045 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>20170515</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>20170515</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>20170516</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>20170516</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>20170517</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>20170517</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>20170517</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>20170518</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>20170518</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>20170518</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>20170519</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>20170519</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>20170519</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>20170520</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>20170520</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>20170520</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>20170521</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>20170521</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32">
+        <v>20170521</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>20170522</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>20170522</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>20170522</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>20170523</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>20170523</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>20170523</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>20170524</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>20170524</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41">
+        <v>20170524</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>20170525</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>20170525</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>20170525</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>20170525</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>20170526</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>20170526</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48">
+        <v>20170526</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>20170526</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>20170527</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>20170527</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <v>20170527</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53">
+        <v>20170527</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>20170528</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>20170528</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56">
+        <v>20170528</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>20170529</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>20170529</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>20170529</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>20170530</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>20170530</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>20170530</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>20170531</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>20170531</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65">
+        <v>20170531</v>
+      </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
+      <c r="E65" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>20170601</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>20170601</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68">
+        <v>20170601</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>20170602</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>20170602</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71">
+        <v>20170602</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>20170603</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>20170603</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>20170603</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>20170604</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>20170604</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>20170604</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>20170605</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>20170605</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>20170605</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D84" s="7"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="6"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="6"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="6"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="6"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1831,10 +4501,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1944,7 +4614,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>20170511</v>
+        <v>20170512</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1966,7 +4636,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>20170511</v>
+        <v>20170513</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,7 +4658,606 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>20170511</v>
+        <v>20170514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>20170515</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>20170515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>20170516</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>20170516</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>20170517</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>20170517</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>20170518</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>20170518</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>20170519</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>20170519</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>20170520</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>20170520</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>20170521</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>20170521</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>20170522</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>20170522</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>20170523</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>20170523</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>20170524</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>20170524</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>20170525</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>20170525</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>20170526</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>20170526</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>20170527</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>20170527</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>20170527</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>20170527</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>20170528</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>20170528</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>20170529</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>20170529</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>20170530</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>20170530</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>20170531</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>20170531</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>20170601</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>20170601</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>20170602</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>20170602</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>20170603</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>20170603</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>20170604</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>20170604</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58">
+        <v>20170605</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>20170605</v>
+      </c>
+      <c r="D59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>20170606</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>20170606</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62">
+        <v>20170606</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>20170607</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>20170607</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65">
+        <v>20170607</v>
+      </c>
+      <c r="D65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2000,12 +5269,158 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20170516</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20170518</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1">
+        <v>672.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20170523</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20170525</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1">
+        <v>540</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20170528</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20170602</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="1">
+        <v>420</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -16,9 +16,9 @@
     <sheet name="特殊消费" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公共消费权重表!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公共消费权重表!$C$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$C$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1105,7 +1105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2079,7 +2081,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I21"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2476,10 +2478,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E64" sqref="E64:H65"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2519,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2546,7 +2549,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2561,7 +2564,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>20170511</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>20170512</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>20170512</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>20170513</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>20170515</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>20170515</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>20170516</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>20170516</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>20170517</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20170517</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>20170517</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20170518</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>20170518</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>20170518</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>20170519</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>20170519</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>20170520</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>20170520</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>20170523</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>20170523</v>
       </c>
@@ -2939,7 +2942,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38" s="3">
         <v>20170525</v>
@@ -2965,7 +2968,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" s="3">
         <v>20170525</v>
@@ -2978,7 +2981,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>20170525</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>20170525</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>20170526</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>20170526</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>20170526</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>20170526</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>20170528</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>20170529</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>20170530</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>20170531</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>20170601</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>20170601</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>20170602</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>20170602</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="E58"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>20170603</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="E59"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>20170603</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="E60"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>20170604</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>20170604</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>20170605</v>
       </c>
@@ -3239,15 +3242,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="E65"/>
       <c r="H65" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C65">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="郑景祥"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/莆田项目部公共开支明细表数据库版本20170421起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170421起.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1678,9 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1894,6 +1892,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>20170524</v>
       </c>
@@ -1905,6 +1906,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>20170525</v>
       </c>
@@ -1916,7 +1920,10 @@
         <v>204.32</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>20170526</v>
       </c>
@@ -1928,7 +1935,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>20170527</v>
       </c>
@@ -1940,7 +1950,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>20170528</v>
       </c>
@@ -1952,7 +1965,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>20170529</v>
       </c>
@@ -1963,7 +1979,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>20170530</v>
       </c>
@@ -1975,7 +1994,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>20170531</v>
       </c>
@@ -1987,7 +2009,10 @@
         <v>133.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>20170601</v>
       </c>
@@ -1999,7 +2024,10 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>20170602</v>
       </c>
@@ -2011,7 +2039,10 @@
         <v>159.62</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>20170603</v>
       </c>
@@ -2022,7 +2053,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>20170604</v>
       </c>
@@ -2034,7 +2068,10 @@
         <v>192.4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>20170605</v>
       </c>
@@ -2045,7 +2082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>20170606</v>
       </c>
@@ -2057,7 +2097,10 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>20170607</v>
       </c>
@@ -2080,9 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2356,6 +2397,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1">
         <v>20170524</v>
       </c>
@@ -2369,7 +2413,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1">
         <v>20170527</v>
       </c>
@@ -2383,7 +2430,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1">
         <v>20170530</v>
       </c>
@@ -2397,7 +2447,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1">
         <v>20170530</v>
       </c>
@@ -2411,7 +2464,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1">
         <v>20170606</v>
       </c>
@@ -2427,7 +2483,10 @@
       <c r="F20"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1">
         <v>20170606</v>
       </c>
@@ -2441,7 +2500,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1">
         <v>20170606</v>
       </c>
@@ -2455,7 +2517,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1">
         <v>20170606</v>
       </c>
